--- a/src/data/d6.xlsx
+++ b/src/data/d6.xlsx
@@ -1,35 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1A_xmumgithub\xmum-map\src\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC7E3F5-1800-40CD-B85F-4822B17DD510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="G" sheetId="1" r:id="rId1"/>
-    <sheet name="1" sheetId="2" r:id="rId2"/>
-    <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="G" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="1" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="2" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -40,344 +24,403 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Slug</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>Show</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>daily_necessity</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>snack</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Express Delight House
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="LXGW WenKai Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">夏一城</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delight</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tuk Tuk Thai &amp; Taro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="LXGW WenKai Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">老地方</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Under Tree
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="LXGW WenKai Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大树下</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's Kopitiam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kopitiam</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Mynews:com
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
+        <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>便利店</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mynews</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Let's Kopitiam</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>kopitiam</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Under Tree
+      </rPr>
+      <t xml:space="preserve">便利店</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">daily_necessity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mynews</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Takwa Mee Tarik
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
+        <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大树下</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tuk Tuk Thai &amp; Taro
+      </rPr>
+      <t xml:space="preserve">兰州拉面</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">takwa2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BC7
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>老地方</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Express Delight House
+        <rFont val="LXGW WenKai Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">家旺</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bc7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Shu Zhi wei
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
+        <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夏一城</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>delight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      </rPr>
+      <t xml:space="preserve">蜀之味</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">shuzhiwei</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Da Cheng Xiao Shi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="LXGW WenKai Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大城小食</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dacheng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">My Little Herbal Tea
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
+        <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>华联好凉茶</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>herbal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Da Cheng Xiao Shi
+      </rPr>
+      <t xml:space="preserve">华联好凉茶</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">herbal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Little Cloud HK Café
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
+        <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大城小食</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dacheng</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Shu Zhi wei
+      </rPr>
+      <t xml:space="preserve">小云冰室</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cloud</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Thumbs Up
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
+        <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蜀之味</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuzhiwei</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BC7
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>家旺</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bc7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Takwa Mee Tarik
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">大拇指</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">thumbs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兰州拉面</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>takwa2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restaurant Kabaabish</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>kabaabish</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Litle Taiwan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小台枫</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>taiwan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U&amp;I
-美式早餐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big Bowl Noodles
-大碗面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigbowl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Meow Health Food
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>喵喵轻食</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>meow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thumbs Up
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大拇指</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>thumbs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Little Cloud HK Café
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小云冰室</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+        <rFont val="LXGW WenKai Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">喵喵轻食</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">meow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Bowl Noodles
+大碗面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigbowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U&amp;I
+美式早餐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ui</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Litle Taiwan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="LXGW WenKai Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">小台枫</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurant Kabaabish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabaabish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="LXGW WenKai Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -392,36 +435,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -432,148 +445,178 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -626,46 +669,48 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" style="1"/>
-    <col min="3" max="3" width="11.54296875" style="2"/>
-    <col min="4" max="6" width="11.54296875" style="1"/>
-    <col min="7" max="10" width="11.54296875" style="16"/>
-    <col min="11" max="16384" width="11.54296875" style="3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="7" style="3" width="11.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="4" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -675,68 +720,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="35.25" customHeight="1">
+    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="35.25" customHeight="1">
+    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="35.25" customHeight="1">
+    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>20</v>
@@ -745,7 +790,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="35.25" customHeight="1">
+    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -753,47 +798,47 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="35.25" customHeight="1">
+    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -801,7 +846,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="35.25" customHeight="1">
+    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -809,7 +854,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="35.25" customHeight="1">
+    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -817,7 +862,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -825,7 +870,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="35.25" customHeight="1">
+    <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -833,7 +878,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="35.25" customHeight="1">
+    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -841,7 +886,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="35.25" customHeight="1">
+    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -849,7 +894,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="35.25" customHeight="1">
+    <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -857,7 +902,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="35.25" customHeight="1">
+    <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -865,7 +910,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="35.25" customHeight="1">
+    <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -873,7 +918,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="35.25" customHeight="1">
+    <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -881,7 +926,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="35.25" customHeight="1">
+    <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -889,7 +934,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="35.25" customHeight="1">
+    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -897,7 +942,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="35.25" customHeight="1">
+    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -905,7 +950,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="35.25" customHeight="1">
+    <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -913,7 +958,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="35.25" customHeight="1">
+    <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -921,7 +966,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="35.25" customHeight="1">
+    <row r="29" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -929,7 +974,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="35.25" customHeight="1">
+    <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -937,7 +982,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="35.25" customHeight="1">
+    <row r="31" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -945,7 +990,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="35.25" customHeight="1">
+    <row r="32" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -953,7 +998,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="35.25" customHeight="1">
+    <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -961,7 +1006,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="35.25" customHeight="1">
+    <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -969,7 +1014,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="35.25" customHeight="1">
+    <row r="35" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -977,7 +1022,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="35.25" customHeight="1">
+    <row r="36" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -985,7 +1030,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="35.25" customHeight="1">
+    <row r="37" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -993,7 +1038,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="35.25" customHeight="1">
+    <row r="38" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1001,7 +1046,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="35.25" customHeight="1">
+    <row r="39" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1009,7 +1054,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="35.25" customHeight="1">
+    <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1017,7 +1062,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="35.25" customHeight="1">
+    <row r="41" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1025,7 +1070,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="35.25" customHeight="1">
+    <row r="42" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1033,7 +1078,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="35.25" customHeight="1">
+    <row r="43" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1041,7 +1086,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="35.25" customHeight="1">
+    <row r="44" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1049,7 +1094,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="35.25" customHeight="1">
+    <row r="45" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1057,7 +1102,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="35.25" customHeight="1">
+    <row r="46" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1065,7 +1110,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="35.25" customHeight="1">
+    <row r="47" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1073,7 +1118,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="35.25" customHeight="1">
+    <row r="48" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1081,7 +1126,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="35.25" customHeight="1">
+    <row r="49" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1089,7 +1134,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="35.25" customHeight="1">
+    <row r="50" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1097,7 +1142,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="35.25" customHeight="1">
+    <row r="51" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1105,7 +1150,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="35.25" customHeight="1">
+    <row r="52" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1113,7 +1158,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="35.25" customHeight="1">
+    <row r="53" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1121,7 +1166,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="35.25" customHeight="1">
+    <row r="54" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1129,7 +1174,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="35.25" customHeight="1">
+    <row r="55" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1137,7 +1182,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="35.25" customHeight="1">
+    <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1145,7 +1190,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="35.25" customHeight="1">
+    <row r="57" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1153,7 +1198,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="35.25" customHeight="1">
+    <row r="58" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1161,7 +1206,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="35.25" customHeight="1">
+    <row r="59" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1169,7 +1214,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="35.25" customHeight="1">
+    <row r="60" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1177,7 +1222,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" ht="35.25" customHeight="1">
+    <row r="61" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1185,7 +1230,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" ht="35.25" customHeight="1">
+    <row r="62" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1193,7 +1238,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" ht="35.25" customHeight="1">
+    <row r="63" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1201,7 +1246,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" ht="35.25" customHeight="1">
+    <row r="64" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1209,7 +1254,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" ht="35.25" customHeight="1">
+    <row r="65" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1217,7 +1262,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" ht="35.25" customHeight="1">
+    <row r="66" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1225,7 +1270,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" ht="35.25" customHeight="1">
+    <row r="67" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1233,7 +1278,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" ht="35.25" customHeight="1">
+    <row r="68" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1241,7 +1286,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="35.25" customHeight="1">
+    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1249,7 +1294,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" ht="35.25" customHeight="1">
+    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1257,7 +1302,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" ht="35.25" customHeight="1">
+    <row r="71" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1265,7 +1310,7 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" ht="35.25" customHeight="1">
+    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1273,7 +1318,7 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" ht="35.25" customHeight="1">
+    <row r="73" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1281,7 +1326,7 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" ht="35.25" customHeight="1">
+    <row r="74" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1289,7 +1334,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" ht="35.25" customHeight="1">
+    <row r="75" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1297,7 +1342,7 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" ht="35.25" customHeight="1">
+    <row r="76" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1305,7 +1350,7 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" ht="35.25" customHeight="1">
+    <row r="77" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1313,7 +1358,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" ht="35.25" customHeight="1">
+    <row r="78" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1322,16 +1367,16 @@
       <c r="F78" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1002" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B7 B13:B1002" type="list">
       <formula1>"restaurant,entertainment,snack,other,daily_necessity"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1339,37 +1384,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C7" activeCellId="1" sqref="A8:F8 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="11.54296875" style="3"/>
-    <col min="7" max="16384" width="11.54296875" style="6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="4" width="11.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="9" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -1379,12 +1428,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="35.25" customHeight="1">
+    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
@@ -1393,12 +1442,12 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="35.25" customHeight="1">
+    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>24</v>
@@ -1407,12 +1456,12 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="35.25" customHeight="1">
+    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>26</v>
@@ -1421,12 +1470,12 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="35.25" customHeight="1">
+    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>28</v>
@@ -1435,21 +1484,15 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
+    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="35.25" customHeight="1">
+    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1457,71 +1500,83 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="35.25" customHeight="1">
+    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="35.25" customHeight="1">
+    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="35.25" customHeight="1">
+    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="35.25" customHeight="1">
+    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="35.25" customHeight="1">
+    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="35.25" customHeight="1">
+    <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="35.25" customHeight="1">
+    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="35.25" customHeight="1">
+    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1529,12 +1584,12 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="35.25" customHeight="1">
+    <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="35.25" customHeight="1">
+    <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1542,7 +1597,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="35.25" customHeight="1">
+    <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1550,7 +1605,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="35.25" customHeight="1">
+    <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1558,7 +1613,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="35.25" customHeight="1">
+    <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1566,7 +1621,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="35.25" customHeight="1">
+    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1574,7 +1629,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="35.25" customHeight="1">
+    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1582,7 +1637,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="35.25" customHeight="1">
+    <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1590,7 +1645,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="35.25" customHeight="1">
+    <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1598,7 +1653,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="35.25" customHeight="1">
+    <row r="29" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1606,7 +1661,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="35.25" customHeight="1">
+    <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1614,7 +1669,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="35.25" customHeight="1">
+    <row r="31" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1622,7 +1677,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="35.25" customHeight="1">
+    <row r="32" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1630,7 +1685,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="35.25" customHeight="1">
+    <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1638,7 +1693,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="35.25" customHeight="1">
+    <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1646,7 +1701,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="35.25" customHeight="1">
+    <row r="35" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1654,7 +1709,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="35.25" customHeight="1">
+    <row r="36" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1662,7 +1717,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="35.25" customHeight="1">
+    <row r="37" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1670,7 +1725,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="35.25" customHeight="1">
+    <row r="38" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1678,7 +1733,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="35.25" customHeight="1">
+    <row r="39" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1686,7 +1741,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="35.25" customHeight="1">
+    <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1694,7 +1749,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="35.25" customHeight="1">
+    <row r="41" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1702,7 +1757,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="35.25" customHeight="1">
+    <row r="42" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1710,7 +1765,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="35.25" customHeight="1">
+    <row r="43" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1718,7 +1773,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="35.25" customHeight="1">
+    <row r="44" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1726,7 +1781,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="35.25" customHeight="1">
+    <row r="45" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1734,7 +1789,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="35.25" customHeight="1">
+    <row r="46" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1742,7 +1797,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="35.25" customHeight="1">
+    <row r="47" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1750,7 +1805,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="35.25" customHeight="1">
+    <row r="48" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1758,7 +1813,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="35.25" customHeight="1">
+    <row r="49" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1766,7 +1821,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="35.25" customHeight="1">
+    <row r="50" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1774,7 +1829,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="35.25" customHeight="1">
+    <row r="51" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1782,7 +1837,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="35.25" customHeight="1">
+    <row r="52" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1790,7 +1845,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="35.25" customHeight="1">
+    <row r="53" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1798,7 +1853,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="35.25" customHeight="1">
+    <row r="54" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1806,7 +1861,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="35.25" customHeight="1">
+    <row r="55" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1814,7 +1869,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="35.25" customHeight="1">
+    <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1822,7 +1877,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="35.25" customHeight="1">
+    <row r="57" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1830,7 +1885,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="35.25" customHeight="1">
+    <row r="58" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1838,7 +1893,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="35.25" customHeight="1">
+    <row r="59" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1846,7 +1901,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="35.25" customHeight="1">
+    <row r="60" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1854,7 +1909,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" ht="35.25" customHeight="1">
+    <row r="61" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1862,7 +1917,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" ht="35.25" customHeight="1">
+    <row r="62" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1870,7 +1925,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" ht="35.25" customHeight="1">
+    <row r="63" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1878,7 +1933,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" ht="35.25" customHeight="1">
+    <row r="64" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1886,7 +1941,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" ht="35.25" customHeight="1">
+    <row r="65" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1894,7 +1949,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" ht="35.25" customHeight="1">
+    <row r="66" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1902,7 +1957,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" ht="35.25" customHeight="1">
+    <row r="67" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1910,7 +1965,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" ht="35.25" customHeight="1">
+    <row r="68" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1918,7 +1973,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="35.25" customHeight="1">
+    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1926,7 +1981,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" ht="35.25" customHeight="1">
+    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1934,7 +1989,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" ht="35.25" customHeight="1">
+    <row r="71" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1942,7 +1997,7 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" ht="35.25" customHeight="1">
+    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1950,7 +2005,7 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" ht="35.25" customHeight="1">
+    <row r="73" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1958,7 +2013,7 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" ht="35.25" customHeight="1">
+    <row r="74" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1966,7 +2021,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" ht="35.25" customHeight="1">
+    <row r="75" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1974,7 +2029,7 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" ht="35.25" customHeight="1">
+    <row r="76" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1982,7 +2037,7 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" ht="35.25" customHeight="1">
+    <row r="77" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1990,7 +2045,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" ht="35.25" customHeight="1">
+    <row r="78" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1999,16 +2054,16 @@
       <c r="F78" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B10 B19 B21:B1010" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B5 B7:B8 B19 B21:B1008" type="list">
       <formula1>"restaurant,entertainment,snack,other,daily_necessity"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2016,356 +2071,402 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="16384" width="11.54296875" style="3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="4" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="F2" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="25.5">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="26">
-      <c r="A4" s="11" t="s">
+      <c r="F3" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="39">
-      <c r="A5" s="11" t="s">
+      <c r="F4" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="38">
-      <c r="A6" s="12" t="s">
+      <c r="F5" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26">
-      <c r="A7" s="13" t="s">
+      <c r="F6" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="39">
-      <c r="A8" s="14" t="s">
+      <c r="F7" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="13">
-      <c r="A9" s="13"/>
-      <c r="F9" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="F10" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13">
-      <c r="A11" s="11"/>
-      <c r="F11" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13">
-      <c r="A12" s="11"/>
-      <c r="F12" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="F13" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13">
-      <c r="A14" s="11"/>
-      <c r="F14" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13">
-      <c r="A15" s="13"/>
-      <c r="F15" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="13">
-      <c r="A16" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="F9" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
+      <c r="F11" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="F12" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
+      <c r="F14" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="F15" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="F16" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13">
-      <c r="A17" s="14"/>
+      <c r="F16" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="F17" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13">
-      <c r="A18" s="11"/>
+      <c r="F17" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="F18" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13">
-      <c r="A19" s="11"/>
-      <c r="F19" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13">
-      <c r="A20" s="11"/>
-      <c r="F20" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13">
-      <c r="A21" s="11"/>
-      <c r="F21" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13">
-      <c r="A22" s="11"/>
-      <c r="F22" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13">
-      <c r="A23" s="11"/>
-      <c r="F23" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13">
-      <c r="A24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="F24" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13">
-      <c r="A25" s="11"/>
-      <c r="F25" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F18" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="F19" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="F20" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="F21" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="F22" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
+      <c r="F23" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="F24" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="F25" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
-      <c r="F26" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13">
-      <c r="A27" s="11"/>
-      <c r="F27" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13">
-      <c r="A28" s="11"/>
-      <c r="F28" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13">
-      <c r="A29" s="11"/>
-      <c r="F29" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="12"/>
-      <c r="F30" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13">
-      <c r="A31" s="11"/>
+      <c r="F26" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15"/>
+      <c r="F27" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15"/>
+      <c r="F28" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15"/>
+      <c r="F29" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14"/>
+      <c r="F30" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="F31" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13">
-      <c r="A32" s="11"/>
+      <c r="F31" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="F32" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="F33" s="10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="13">
-      <c r="A34" s="11"/>
+      <c r="F33" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="F34" s="10" t="b">
-        <f>TRUE()</f>
+      <c r="F34" s="13" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1034" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B1034" type="list">
       <formula1>"restaurant,entertainment,snack,other,daily_necessity"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/src/data/d6.xlsx
+++ b/src/data/d6.xlsx
@@ -63,6 +63,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">夏一城</t>
     </r>
@@ -89,6 +90,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">老地方</t>
     </r>
@@ -115,6 +117,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">大树下</t>
     </r>
@@ -144,6 +147,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">便利店</t>
     </r>
@@ -170,6 +174,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">兰州拉面</t>
     </r>
@@ -193,6 +198,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">家旺</t>
     </r>
@@ -216,6 +222,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">蜀之味</t>
     </r>
@@ -239,6 +246,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">大城小食</t>
     </r>
@@ -262,6 +270,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">华联好凉茶</t>
     </r>
@@ -285,6 +294,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小云冰室</t>
     </r>
@@ -308,6 +318,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">大拇指</t>
     </r>
@@ -331,6 +342,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">喵喵轻食</t>
     </r>
@@ -367,6 +379,7 @@
         <sz val="10"/>
         <rFont val="LXGW WenKai Mono"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小台枫</t>
     </r>
@@ -390,7 +403,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -416,17 +429,12 @@
       <sz val="10"/>
       <name val="LXGW WenKai Mono"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="LXGW WenKai Mono"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -485,7 +493,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -498,7 +506,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -523,18 +531,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -542,15 +542,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -682,7 +678,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="A8:F8"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -799,41 +795,41 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1393,13 +1389,13 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C7" activeCellId="1" sqref="A8:F8 C7"/>
+      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="4" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="9" width="11.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1485,9 +1481,15 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1501,47 +1503,41 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2055,7 +2051,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B5 B7:B8 B19 B21:B1008" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B7 B19 B21:B1006" type="list">
       <formula1>"restaurant,entertainment,snack,other,daily_necessity"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2080,7 +2076,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8:F8"/>
+      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2124,17 +2120,17 @@
       <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2143,19 +2139,19 @@
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
+      <c r="F3" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2164,19 +2160,19 @@
       <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
+      <c r="F4" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2185,19 +2181,19 @@
       <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
-      <c r="M5" s="0"/>
-      <c r="N5" s="0"/>
+      <c r="F5" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2206,16 +2202,16 @@
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
+      <c r="F6" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -2227,19 +2223,19 @@
       <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
+      <c r="F7" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2249,69 +2245,69 @@
         <v>44</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="F8" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
+      <c r="F8" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="F9" s="13" t="n">
+      <c r="A9" s="10"/>
+      <c r="F9" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="F11" s="13" t="n">
+      <c r="A11" s="12"/>
+      <c r="F11" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="F12" s="13" t="n">
+      <c r="A12" s="12"/>
+      <c r="F12" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="F14" s="13" t="n">
+      <c r="A14" s="12"/>
+      <c r="F14" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="F15" s="13" t="n">
+      <c r="A15" s="10"/>
+      <c r="F15" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2320,120 +2316,120 @@
       <c r="A17" s="10"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="F19" s="13" t="n">
+      <c r="A19" s="12"/>
+      <c r="F19" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="F20" s="13" t="n">
+      <c r="A20" s="12"/>
+      <c r="F20" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="F21" s="13" t="n">
+      <c r="A21" s="12"/>
+      <c r="F21" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="F22" s="13" t="n">
+      <c r="A22" s="12"/>
+      <c r="F22" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="F23" s="13" t="n">
+      <c r="A23" s="12"/>
+      <c r="F23" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="F24" s="13" t="n">
+      <c r="A24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="F24" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="F25" s="13" t="n">
+      <c r="A25" s="12"/>
+      <c r="F25" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
-      <c r="F26" s="13" t="n">
+      <c r="F26" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="F27" s="13" t="n">
+      <c r="A27" s="12"/>
+      <c r="F27" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="F28" s="13" t="n">
+      <c r="A28" s="12"/>
+      <c r="F28" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="F29" s="13" t="n">
+      <c r="A29" s="12"/>
+      <c r="F29" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="F30" s="13" t="n">
+      <c r="A30" s="8"/>
+      <c r="F30" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="F31" s="13" t="n">
+      <c r="F31" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="F32" s="13" t="n">
+      <c r="F32" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2442,16 +2438,16 @@
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="F33" s="13" t="n">
+      <c r="F33" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="F34" s="13" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
